--- a/init-data/hzero-import/hzero_platform/hzero-platform-lov.xlsx
+++ b/init-data/hzero-import/hzero_platform/hzero-platform-lov.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="268">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-11-17</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2031,7 +2031,10 @@
     <t>description:en_US</t>
   </si>
   <si>
-    <t>#tenant_id</t>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
   </si>
   <si>
     <t>parent_lov_code</t>
@@ -2065,6 +2068,9 @@
   </si>
   <si>
     <t>public_flag</t>
+  </si>
+  <si>
+    <t>decrypt_field</t>
   </si>
   <si>
     <t>hpfm_lov-8</t>
@@ -2145,7 +2151,7 @@
     <t>导入状态</t>
   </si>
   <si>
-    <t>数据导入状态</t>
+    <t>Import Status</t>
   </si>
   <si>
     <t>hpfm_lov-12</t>
@@ -2158,6 +2164,9 @@
   </si>
   <si>
     <t>导入模板</t>
+  </si>
+  <si>
+    <t>Import Template</t>
   </si>
   <si>
     <t>导入模板LOV</t>
@@ -2193,6 +2202,9 @@
     <t>模板字段类型</t>
   </si>
   <si>
+    <t>Template Field Type</t>
+  </si>
+  <si>
     <t>hpfm_lov-14</t>
   </si>
   <si>
@@ -2202,6 +2214,9 @@
     <t>模板类型</t>
   </si>
   <si>
+    <t>Template Type</t>
+  </si>
+  <si>
     <t>LOV独立值集表</t>
   </si>
   <si>
@@ -2388,36 +2403,54 @@
     <t>上传数据中</t>
   </si>
   <si>
+    <t>Uploading Data</t>
+  </si>
+  <si>
     <t>UPLOADED</t>
   </si>
   <si>
     <t>上传数据完成</t>
   </si>
   <si>
+    <t>Upload Data Completed</t>
+  </si>
+  <si>
     <t>CHECKING</t>
   </si>
   <si>
     <t>数据校验中</t>
   </si>
   <si>
+    <t>Data Verification</t>
+  </si>
+  <si>
     <t>CHECKED</t>
   </si>
   <si>
     <t>数据校验完成</t>
   </si>
   <si>
+    <t>Data Verification Completed</t>
+  </si>
+  <si>
     <t>IMPORTING</t>
   </si>
   <si>
     <t>数据导入中</t>
   </si>
   <si>
+    <t>Data Importing</t>
+  </si>
+  <si>
     <t>IMPORTED</t>
   </si>
   <si>
     <t>数据导入完成</t>
   </si>
   <si>
+    <t>Data Import Complete</t>
+  </si>
+  <si>
     <t>String</t>
   </si>
   <si>
@@ -2430,12 +2463,18 @@
     <t>整数</t>
   </si>
   <si>
+    <t>Integer</t>
+  </si>
+  <si>
     <t>Decimal</t>
   </si>
   <si>
     <t>浮点数</t>
   </si>
   <si>
+    <t>Floating Point</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -2445,6 +2484,9 @@
     <t>多语言</t>
   </si>
   <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
     <t>客户端导入使用</t>
   </si>
   <si>
@@ -2460,12 +2502,18 @@
     <t>服务端</t>
   </si>
   <si>
+    <t>Server</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
     <t>客户端</t>
   </si>
   <si>
+    <t>Client</t>
+  </si>
+  <si>
     <t>值集查询视图头表</t>
   </si>
   <si>
@@ -2511,6 +2559,9 @@
     <t>hpfm_lov_view_header-48</t>
   </si>
   <si>
+    <t>Import Service Import Script</t>
+  </si>
+  <si>
     <t>scriptCode</t>
   </si>
   <si>
@@ -2529,9 +2580,6 @@
     <t>templateName</t>
   </si>
   <si>
-    <t>Import Template</t>
-  </si>
-  <si>
     <t>值集查询视图行表</t>
   </si>
   <si>
@@ -2544,7 +2592,10 @@
     <t>#view_header_id</t>
   </si>
   <si>
-    <t>tenant_id</t>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
   </si>
   <si>
     <t>display:zh_CN</t>
@@ -2571,6 +2622,9 @@
     <t>脚本编码</t>
   </si>
   <si>
+    <t>Script Encoding</t>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
@@ -2580,6 +2634,9 @@
     <t>脚本描述</t>
   </si>
   <si>
+    <t>Script Description</t>
+  </si>
+  <si>
     <t>400</t>
   </si>
   <si>
@@ -2589,6 +2646,9 @@
     <t>模板编码</t>
   </si>
   <si>
+    <t>Template Code</t>
+  </si>
+  <si>
     <t>250</t>
   </si>
   <si>
@@ -2598,7 +2658,7 @@
     <t>模板名称</t>
   </si>
   <si>
-    <t>模板名</t>
+    <t>Template Name</t>
   </si>
   <si>
     <t>hpfm_lov_view_line-56</t>
@@ -2627,7 +2687,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="45">
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2803,12 +2863,22 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2849,6 +2919,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3019,7 +3094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3113,6 +3188,9 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3698,7 +3776,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:Z58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3769,7 +3847,7 @@
       <c r="M7" t="s" s="42">
         <v>62</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" t="s" s="43">
         <v>63</v>
       </c>
       <c r="O7" t="s">
@@ -3802,238 +3880,265 @@
       <c r="X7" t="s">
         <v>73</v>
       </c>
+      <c r="Y7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>80</v>
-      </c>
-      <c r="X8" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="V8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" t="s">
-        <v>87</v>
-      </c>
-      <c r="T9" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>89</v>
       </c>
       <c r="U9" t="s">
-        <v>80</v>
-      </c>
-      <c r="X9" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="V9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M10" t="s">
-        <v>79</v>
-      </c>
-      <c r="T10" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>80</v>
-      </c>
-      <c r="X10" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="V10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
-      </c>
-      <c r="T11" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>80</v>
-      </c>
-      <c r="X11" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="V11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M12" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" t="s">
-        <v>101</v>
-      </c>
-      <c r="T12" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>104</v>
       </c>
       <c r="U12" t="s">
-        <v>80</v>
-      </c>
-      <c r="X12" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="V12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
-      </c>
-      <c r="T13" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N13" t="s">
+        <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>80</v>
-      </c>
-      <c r="X13" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="V13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
-      </c>
-      <c r="T14" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N14" t="s">
+        <v>81</v>
       </c>
       <c r="U14" t="s">
-        <v>80</v>
-      </c>
-      <c r="X14" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="V14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -4044,28 +4149,28 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" t="s" s="43">
-        <v>109</v>
-      </c>
-      <c r="E16" t="s" s="44">
-        <v>110</v>
-      </c>
-      <c r="F16" t="s" s="45">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="D16" t="s" s="44">
+        <v>114</v>
+      </c>
+      <c r="E16" t="s" s="45">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s" s="46">
+        <v>116</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" t="s" s="46">
-        <v>113</v>
+        <v>117</v>
+      </c>
+      <c r="H16" t="s" s="47">
+        <v>118</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K16" t="s">
         <v>60</v>
@@ -4073,873 +4178,963 @@
       <c r="L16" t="s">
         <v>61</v>
       </c>
-      <c r="M16" t="s" s="47">
+      <c r="M16" t="s" s="48">
         <v>62</v>
       </c>
-      <c r="N16" t="s">
-        <v>116</v>
+      <c r="N16" t="s" s="49">
+        <v>63</v>
       </c>
       <c r="O16" t="s">
-        <v>117</v>
-      </c>
-      <c r="P16" t="s" s="48">
-        <v>118</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="P16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q16" t="s" s="50">
+        <v>123</v>
       </c>
       <c r="R16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="S16" t="s">
-        <v>70</v>
+        <v>125</v>
+      </c>
+      <c r="T16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F17">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
-      </c>
-      <c r="O17" t="s">
-        <v>125</v>
-      </c>
-      <c r="S17" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" t="s">
+        <v>130</v>
+      </c>
+      <c r="T17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F18">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I18" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J18" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
-      </c>
-      <c r="O18" t="s">
-        <v>129</v>
-      </c>
-      <c r="S18" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N18" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" t="s">
+        <v>134</v>
+      </c>
+      <c r="T18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F19">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I19" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s">
-        <v>79</v>
-      </c>
-      <c r="O19" t="s">
-        <v>133</v>
-      </c>
-      <c r="S19" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" t="s">
+        <v>138</v>
+      </c>
+      <c r="T19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F20">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I20" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
-      </c>
-      <c r="O20" t="s">
-        <v>137</v>
-      </c>
-      <c r="S20" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" t="s">
+        <v>142</v>
+      </c>
+      <c r="T20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F21">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I21" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="J21" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M21" t="s">
-        <v>79</v>
-      </c>
-      <c r="O21" t="s">
-        <v>141</v>
-      </c>
-      <c r="S21" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" t="s">
+        <v>146</v>
+      </c>
+      <c r="T21" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F22">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I22" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J22" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M22" t="s">
-        <v>79</v>
-      </c>
-      <c r="O22" t="s">
-        <v>145</v>
-      </c>
-      <c r="S22" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" t="s">
+        <v>150</v>
+      </c>
+      <c r="T22" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F23">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M23" t="s">
-        <v>79</v>
-      </c>
-      <c r="O23" t="s">
-        <v>125</v>
-      </c>
-      <c r="S23" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" t="s">
+        <v>130</v>
+      </c>
+      <c r="T23" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F24">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="J24" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s">
-        <v>79</v>
-      </c>
-      <c r="O24" t="s">
-        <v>129</v>
-      </c>
-      <c r="S24" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N24" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" t="s">
+        <v>134</v>
+      </c>
+      <c r="T24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F25">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I25" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J25" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M25" t="s">
-        <v>79</v>
-      </c>
-      <c r="O25" t="s">
-        <v>133</v>
-      </c>
-      <c r="S25" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N25" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" t="s">
+        <v>138</v>
+      </c>
+      <c r="T25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F26">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I26" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J26" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s">
-        <v>79</v>
-      </c>
-      <c r="O26" t="s">
-        <v>137</v>
-      </c>
-      <c r="S26" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N26" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" t="s">
+        <v>142</v>
+      </c>
+      <c r="T26" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F27">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M27" t="s">
-        <v>79</v>
-      </c>
-      <c r="O27" t="s">
-        <v>141</v>
-      </c>
-      <c r="S27" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="s">
+        <v>146</v>
+      </c>
+      <c r="T27" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F28">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I28" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J28" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M28" t="s">
-        <v>79</v>
-      </c>
-      <c r="O28" t="s">
-        <v>145</v>
-      </c>
-      <c r="S28" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N28" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" t="s">
+        <v>150</v>
+      </c>
+      <c r="T28" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F29">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J29" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M29" t="s">
-        <v>79</v>
-      </c>
-      <c r="O29" t="s">
-        <v>158</v>
-      </c>
-      <c r="S29" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" t="s">
+        <v>163</v>
+      </c>
+      <c r="T29" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F30">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I30" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J30" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M30" t="s">
-        <v>79</v>
-      </c>
-      <c r="O30" t="s">
-        <v>161</v>
-      </c>
-      <c r="S30" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N30" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" t="s">
+        <v>166</v>
+      </c>
+      <c r="T30" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F31">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I31" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J31" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M31" t="s">
-        <v>79</v>
-      </c>
-      <c r="O31" t="s">
-        <v>164</v>
-      </c>
-      <c r="S31" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P31" t="s">
+        <v>169</v>
+      </c>
+      <c r="T31" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F32">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I32" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J32" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M32" t="s">
-        <v>79</v>
-      </c>
-      <c r="O32" t="s">
-        <v>167</v>
-      </c>
-      <c r="S32" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" t="s">
+        <v>172</v>
+      </c>
+      <c r="T32" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F33">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H33" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I33" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J33" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M33" t="s">
-        <v>79</v>
-      </c>
-      <c r="O33" t="s">
-        <v>125</v>
-      </c>
-      <c r="S33" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N33" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" t="s">
+        <v>130</v>
+      </c>
+      <c r="T33" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F34">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H34" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I34" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J34" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M34" t="s">
-        <v>79</v>
-      </c>
-      <c r="O34" t="s">
-        <v>129</v>
-      </c>
-      <c r="S34" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P34" t="s">
+        <v>134</v>
+      </c>
+      <c r="T34" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F35">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H35" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="I35" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="J35" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="M35" t="s">
-        <v>79</v>
-      </c>
-      <c r="O35" t="s">
-        <v>133</v>
-      </c>
-      <c r="S35" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N35" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" t="s">
+        <v>138</v>
+      </c>
+      <c r="T35" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F36">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H36" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="I36" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="J36" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="M36" t="s">
-        <v>79</v>
-      </c>
-      <c r="O36" t="s">
-        <v>137</v>
-      </c>
-      <c r="S36" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N36" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36" t="s">
+        <v>142</v>
+      </c>
+      <c r="T36" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F37">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G37" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H37" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="I37" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J37" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M37" t="s">
-        <v>79</v>
-      </c>
-      <c r="O37" t="s">
-        <v>141</v>
-      </c>
-      <c r="S37" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P37" t="s">
+        <v>146</v>
+      </c>
+      <c r="T37" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F38">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G38" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H38" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="I38" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="J38" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="M38" t="s">
-        <v>79</v>
-      </c>
-      <c r="O38" t="s">
-        <v>145</v>
-      </c>
-      <c r="S38" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N38" t="s">
+        <v>81</v>
+      </c>
+      <c r="P38" t="s">
+        <v>150</v>
+      </c>
+      <c r="T38" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F39">
         <f>值集数据!$E$13</f>
       </c>
       <c r="G39" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H39" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I39" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J39" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="M39" t="s">
-        <v>79</v>
-      </c>
-      <c r="O39" t="s">
-        <v>125</v>
-      </c>
-      <c r="S39" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P39" t="s">
+        <v>130</v>
+      </c>
+      <c r="T39" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F40">
         <f>值集数据!$E$13</f>
       </c>
       <c r="G40" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H40" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="I40" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="J40" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="M40" t="s">
-        <v>79</v>
-      </c>
-      <c r="O40" t="s">
-        <v>129</v>
-      </c>
-      <c r="S40" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N40" t="s">
+        <v>81</v>
+      </c>
+      <c r="P40" t="s">
+        <v>134</v>
+      </c>
+      <c r="T40" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F41">
         <f>值集数据!$E$13</f>
       </c>
       <c r="G41" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H41" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="I41" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="J41" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="M41" t="s">
-        <v>79</v>
-      </c>
-      <c r="O41" t="s">
-        <v>133</v>
-      </c>
-      <c r="S41" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N41" t="s">
+        <v>81</v>
+      </c>
+      <c r="P41" t="s">
+        <v>138</v>
+      </c>
+      <c r="T41" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F42">
         <f>值集数据!$E$13</f>
       </c>
       <c r="G42" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H42" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="I42" t="s">
         <v>44</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="M42" t="s">
-        <v>79</v>
-      </c>
-      <c r="O42" t="s">
-        <v>137</v>
-      </c>
-      <c r="S42" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N42" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" t="s">
+        <v>142</v>
+      </c>
+      <c r="T42" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F43">
         <f>值集数据!$E$13</f>
       </c>
       <c r="G43" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H43" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="I43" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="J43" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="K43" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="M43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N43" t="s">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="O43" t="s">
-        <v>191</v>
-      </c>
-      <c r="S43" t="s">
-        <v>80</v>
+        <v>204</v>
+      </c>
+      <c r="P43" t="s">
+        <v>205</v>
+      </c>
+      <c r="T43" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F44">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H44" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="I44" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="J44" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M44" t="s">
-        <v>79</v>
-      </c>
-      <c r="O44" t="s">
-        <v>125</v>
-      </c>
-      <c r="S44" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N44" t="s">
+        <v>81</v>
+      </c>
+      <c r="P44" t="s">
+        <v>130</v>
+      </c>
+      <c r="T44" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F45">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G45" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H45" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="I45" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="J45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="M45" t="s">
-        <v>79</v>
-      </c>
-      <c r="O45" t="s">
-        <v>129</v>
-      </c>
-      <c r="S45" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="N45" t="s">
+        <v>81</v>
+      </c>
+      <c r="P45" t="s">
+        <v>134</v>
+      </c>
+      <c r="T45" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="47">
@@ -4950,140 +5145,149 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
-      </c>
-      <c r="D47" t="s" s="49">
-        <v>197</v>
-      </c>
-      <c r="E47" t="s" s="50">
-        <v>198</v>
-      </c>
-      <c r="F47" t="s" s="51">
-        <v>199</v>
+        <v>212</v>
+      </c>
+      <c r="D47" t="s" s="51">
+        <v>213</v>
+      </c>
+      <c r="E47" t="s" s="52">
+        <v>214</v>
+      </c>
+      <c r="F47" t="s" s="53">
+        <v>215</v>
       </c>
       <c r="G47" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="H47" t="s">
-        <v>201</v>
-      </c>
-      <c r="I47" t="s" s="52">
-        <v>202</v>
-      </c>
-      <c r="J47" t="s" s="53">
+        <v>217</v>
+      </c>
+      <c r="I47" t="s" s="54">
+        <v>218</v>
+      </c>
+      <c r="J47" t="s" s="55">
         <v>62</v>
       </c>
-      <c r="K47" t="s">
-        <v>67</v>
+      <c r="K47" t="s" s="56">
+        <v>63</v>
       </c>
       <c r="L47" t="s">
         <v>68</v>
       </c>
       <c r="M47" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="N47" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="O47" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="Q47" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="R47" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="S47" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="T47" t="s">
-        <v>70</v>
+        <v>225</v>
+      </c>
+      <c r="U47" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="F48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="I48">
         <f>值集数据!$E$9</f>
       </c>
       <c r="J48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="L48" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="M48" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="N48" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>125</v>
+        <v>230</v>
+      </c>
+      <c r="O48" t="s">
+        <v>230</v>
       </c>
       <c r="R48" t="s">
-        <v>79</v>
-      </c>
-      <c r="T48" t="s">
-        <v>80</v>
+        <v>130</v>
+      </c>
+      <c r="S48" t="s">
+        <v>81</v>
+      </c>
+      <c r="U48" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G49" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I49">
         <f>值集数据!$E$12</f>
       </c>
       <c r="J49" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="L49" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="M49" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="N49" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>125</v>
+        <v>101</v>
+      </c>
+      <c r="O49" t="s">
+        <v>102</v>
       </c>
       <c r="R49" t="s">
-        <v>79</v>
-      </c>
-      <c r="T49" t="s">
-        <v>80</v>
+        <v>130</v>
+      </c>
+      <c r="S49" t="s">
+        <v>81</v>
+      </c>
+      <c r="U49" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="51">
@@ -5094,312 +5298,336 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" t="s" s="57">
+        <v>235</v>
+      </c>
+      <c r="E51" t="s" s="58">
+        <v>236</v>
+      </c>
+      <c r="F51" t="s" s="59">
+        <v>237</v>
+      </c>
+      <c r="G51" t="s">
+        <v>238</v>
+      </c>
+      <c r="H51" t="s">
+        <v>239</v>
+      </c>
+      <c r="I51" t="s" s="60">
         <v>218</v>
       </c>
-      <c r="D51" t="s" s="54">
-        <v>219</v>
-      </c>
-      <c r="E51" t="s" s="55">
-        <v>220</v>
-      </c>
-      <c r="F51" t="s" s="56">
-        <v>221</v>
-      </c>
-      <c r="G51" t="s">
-        <v>222</v>
-      </c>
-      <c r="H51" t="s" s="57">
-        <v>202</v>
-      </c>
-      <c r="I51" t="s">
-        <v>223</v>
-      </c>
       <c r="J51" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="K51" t="s">
-        <v>117</v>
-      </c>
-      <c r="L51" t="s" s="58">
-        <v>225</v>
-      </c>
-      <c r="M51" t="s">
-        <v>226</v>
+        <v>241</v>
+      </c>
+      <c r="L51" t="s">
+        <v>122</v>
+      </c>
+      <c r="M51" t="s" s="61">
+        <v>242</v>
       </c>
       <c r="N51" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="O51" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="P51" t="s">
-        <v>70</v>
+        <v>245</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="F52">
         <f>值集数据!$E$48</f>
       </c>
       <c r="G52" t="s">
-        <v>79</v>
-      </c>
-      <c r="H52">
+        <v>81</v>
+      </c>
+      <c r="H52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52">
         <f>值集数据!$E$9</f>
       </c>
-      <c r="I52" t="s">
-        <v>230</v>
-      </c>
       <c r="J52" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="K52" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="L52" t="s">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="M52" t="s">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="N52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O52" t="s">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="P52" t="s">
-        <v>80</v>
+        <v>249</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="F53">
         <f>值集数据!$E$48</f>
       </c>
       <c r="G53" t="s">
-        <v>79</v>
-      </c>
-      <c r="H53">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53">
         <f>值集数据!$E$9</f>
       </c>
-      <c r="I53" t="s">
-        <v>233</v>
-      </c>
       <c r="J53" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="K53" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="L53" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="M53" t="s">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="N53" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O53" t="s">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="P53" t="s">
-        <v>80</v>
+        <v>253</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="F54">
         <f>值集数据!$E$49</f>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
-      </c>
-      <c r="H54">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54">
         <f>值集数据!$E$12</f>
       </c>
-      <c r="I54" t="s">
-        <v>236</v>
-      </c>
       <c r="J54" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="K54" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="L54" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="M54" t="s">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="N54" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O54" t="s">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>80</v>
+        <v>257</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="F55">
         <f>值集数据!$E$49</f>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
-      </c>
-      <c r="H55">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55">
         <f>值集数据!$E$12</f>
       </c>
-      <c r="I55" t="s">
-        <v>239</v>
-      </c>
       <c r="J55" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="K55" t="s">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="L55" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="M55" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="N55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O55" t="s">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="P55" t="s">
-        <v>80</v>
+        <v>257</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F56">
         <f>值集数据!$E$49</f>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
-      </c>
-      <c r="H56">
+        <v>81</v>
+      </c>
+      <c r="H56" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56">
         <f>值集数据!$E$12</f>
       </c>
-      <c r="I56" t="s">
-        <v>242</v>
-      </c>
       <c r="J56" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="K56" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="L56" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="M56" t="s">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="N56" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O56" t="s">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>80</v>
+        <v>263</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="F57">
         <f>值集数据!$E$49</f>
       </c>
       <c r="G57" t="s">
-        <v>79</v>
-      </c>
-      <c r="H57">
+        <v>81</v>
+      </c>
+      <c r="H57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I57">
         <f>值集数据!$E$12</f>
       </c>
-      <c r="I57" t="s">
-        <v>245</v>
-      </c>
       <c r="J57" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="K57" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="L57" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="M57" t="s">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="N57" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O57" t="s">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>80</v>
+        <v>263</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="F58">
         <f>值集数据!$E$49</f>
       </c>
       <c r="G58" t="s">
-        <v>79</v>
-      </c>
-      <c r="H58">
+        <v>81</v>
+      </c>
+      <c r="H58" t="s">
+        <v>81</v>
+      </c>
+      <c r="I58">
         <f>值集数据!$E$12</f>
       </c>
-      <c r="I58" t="s">
-        <v>247</v>
-      </c>
       <c r="J58" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="K58" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="L58" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="M58" t="s">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="N58" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O58" t="s">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>80</v>
+        <v>263</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
